--- a/Deliverables/16S/WADE003-arcticpred_dada2_QAQC_16SP2_output-Addspecies.xlsx
+++ b/Deliverables/16S/WADE003-arcticpred_dada2_QAQC_16SP2_output-Addspecies.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_2C48FED58F79A8D366075C52F37BD2720ACAA087" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E433B4-6042-47AF-9A7D-A26B50849CAA}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_B8721EDD8F79A8D366075C52F37BD2728AC5FEAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{274D9A42-DD3A-47CE-AD15-4C44674EFEE6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
-    <sheet name="no_Mammals" sheetId="2" r:id="rId2"/>
-    <sheet name="Unresolved" sheetId="3" r:id="rId3"/>
+    <sheet name="no_Mammals.Bact" sheetId="2" r:id="rId2"/>
+    <sheet name="Unassigned" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="162">
   <si>
     <t>rownames</t>
   </si>
@@ -240,18 +240,18 @@
     <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCCCACGTTAAGCACCCTGAATAAAGGACTAAACCAAGTGGACCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAATGGGAATACTTTTCCTACAACTAAGAGCTACAGCTCTCATAAACAGAATTTCTGACCAACAAGATCCGGCAATGCCG</t>
   </si>
   <si>
+    <t>Gymnocanthus</t>
+  </si>
+  <si>
+    <t>Gymnocanthus tricuspis</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTAAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAATACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAGTGCCG</t>
+  </si>
+  <si>
     <t>Cottidae</t>
   </si>
   <si>
-    <t>Gymnocanthus</t>
-  </si>
-  <si>
-    <t>Gymnocanthus tricuspis</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTAAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAATACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAGTGCCG</t>
-  </si>
-  <si>
     <t>Myoxocephalus jaok</t>
   </si>
   <si>
@@ -384,9 +384,6 @@
     <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGAGTGGTTAAGTCAAAACTCACACTAAAGCCAAACATCTTCAAGACTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTCATCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
   </si>
   <si>
-    <t>Gymnocanthus spp.</t>
-  </si>
-  <si>
     <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
   </si>
   <si>
     <t>TAACGAGGGTTTAACTGTCTCTTTCTCCTGGTCAGTGAAACTGATCTACCCGTGCAGAAGCGGGTATGAATATACAAGACGAGAAGACCCTATGGAGCTTTAGACGCCCACCAATCACGAAAAGCAGGTCTCGCTCAACAGACCCCCAAACAACGTGATACTGGCACAAACGTCTTCGGTTGGGGCGACCGCGGGAGAGAAAAAAGCTCCCGAGAGGATTGGGGCTACCCTAAAACCAAGAGCTACACCTCTAAGTCACAAAACATTTGACCAAAAATGATCCGGCTACATGCCG</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <r>
@@ -501,6 +495,12 @@
       </rPr>
       <t>Leptoclinus maculatus</t>
     </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>many matches &gt; 99%</t>
   </si>
   <si>
     <r>
@@ -596,9 +596,6 @@
     <t>no matches &gt;98%</t>
   </si>
   <si>
-    <t>many matches &gt; 99%</t>
-  </si>
-  <si>
     <t>Plausible by range, has been found in ice seal or beluga stomachs sorted by ADF&amp;G from the corresponding region</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>100% matches: Lumpenus lampretaeformis, Lumpenus fabricii</t>
   </si>
   <si>
     <r>
@@ -717,61 +717,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">no 100% matches: &gt;98% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liparis gibbus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liparis bathyarcticus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Liparis fabricii </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">100% matches: </t>
     </r>
     <r>
@@ -827,14 +772,66 @@
     </r>
   </si>
   <si>
-    <t>100% matches: Lumpenus lampretaeformis, Lumpenus fabricii</t>
+    <r>
+      <t xml:space="preserve">no 100% matches: &gt;98% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liparis gibbus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liparis bathyarcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liparis fabricii </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,13 +843,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -902,17 +892,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -924,27 +909,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1255,16 +1237,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1746,18 +1728,6 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
       <c r="I18" t="s">
         <v>69</v>
       </c>
@@ -1778,28 +1748,16 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1814,7 +1772,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -1846,16 +1804,16 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
         <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>78</v>
@@ -1906,18 +1864,6 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
       <c r="I23" t="s">
         <v>86</v>
       </c>
@@ -2046,7 +1992,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -2174,7 +2120,7 @@
         <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>116</v>
@@ -2234,28 +2180,16 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>72</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>73</v>
-      </c>
-      <c r="H34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -2287,7 +2221,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2307,7 +2241,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -2339,7 +2273,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2371,7 +2305,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -2403,7 +2337,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -2423,7 +2357,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -2438,7 +2372,7 @@
         <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -2455,7 +2389,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2487,27 +2421,27 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>130</v>
-      </c>
-      <c r="J43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2539,7 +2473,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -2571,39 +2505,39 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>136</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>137</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>138</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>139</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="H46" t="s">
-        <v>141</v>
-      </c>
       <c r="I46" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" t="s">
         <v>140</v>
-      </c>
-      <c r="J46" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -2618,24 +2552,24 @@
         <v>64</v>
       </c>
       <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
         <v>143</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>144</v>
       </c>
-      <c r="H47" t="s">
-        <v>145</v>
-      </c>
       <c r="I47" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" t="s">
         <v>144</v>
-      </c>
-      <c r="J47" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2671,28 +2605,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402C909A-30AD-4E85-8EDF-6725BA74DCD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B87B512-1833-4220-A3E9-C7298A11B60A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="109.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2723,8 +2658,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2776,7 +2714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2808,7 +2746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2840,7 +2778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2872,7 +2810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2924,7 +2862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2938,7 +2876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2952,7 +2890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +2910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2998,7 +2936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3030,7 +2968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3062,7 +3000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3094,7 +3032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3158,7 +3096,7 @@
         <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,18 +3112,6 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
       <c r="I18" t="s">
         <v>69</v>
       </c>
@@ -3206,28 +3132,16 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3242,7 +3156,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -3274,16 +3188,16 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
         <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>78</v>
@@ -3302,18 +3216,6 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
       <c r="I22" t="s">
         <v>86</v>
       </c>
@@ -3410,7 +3312,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -3460,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3512,7 +3414,7 @@
         <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>116</v>
@@ -3527,44 +3429,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="J30" t="s">
         <v>73</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3584,7 +3471,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3616,7 +3503,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3636,7 +3523,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3651,7 +3538,7 @@
         <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
         <v>41</v>
@@ -3671,27 +3558,27 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
         <v>129</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>130</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3723,7 +3610,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3738,27 +3625,27 @@
         <v>64</v>
       </c>
       <c r="F37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" t="s">
         <v>143</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>144</v>
       </c>
-      <c r="H37" t="s">
-        <v>145</v>
-      </c>
       <c r="I37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" t="s">
         <v>144</v>
       </c>
-      <c r="J37" t="s">
-        <v>145</v>
-      </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3794,26 +3681,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5334DE-C082-49ED-BB35-C42ECE4A1557}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279E839-0456-4F81-9E89-1ECC443EE380}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3865,7 +3751,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3894,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3910,7 +3796,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3933,7 +3819,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3954,34 +3840,34 @@
         <v>151</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
